--- a/amlcheck-docs/AML Rating Template.xlsx
+++ b/amlcheck-docs/AML Rating Template.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_715FEB5FA6D833958C9F6961CB859AB90536859F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="16260" windowHeight="5856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="36" windowWidth="16260" windowHeight="5856"/>
   </bookViews>
   <sheets>
     <sheet name="AML Assessment Table Sample" sheetId="1" r:id="rId1"/>
@@ -19,260 +18,260 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
   <si>
+    <t>First Name EN</t>
+  </si>
+  <si>
+    <t>Middle Name EN</t>
+  </si>
+  <si>
+    <t>Last Name EN</t>
+  </si>
+  <si>
+    <t>Country Code Operation</t>
+  </si>
+  <si>
+    <t>Government Income</t>
+  </si>
+  <si>
+    <t>Source Income</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Client Type</t>
+  </si>
+  <si>
     <t>Criteria</t>
   </si>
   <si>
     <t>Score</t>
   </si>
   <si>
+    <t>Authorized Signers</t>
+  </si>
+  <si>
     <t>Data Type</t>
   </si>
   <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>remove criteria</t>
+  </si>
+  <si>
+    <t>Input or N</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Transaction Status is null</t>
+  </si>
+  <si>
+    <t>Transaction Status is LOW</t>
+  </si>
+  <si>
+    <t>Transaction Status is HIGH</t>
+  </si>
+  <si>
+    <t>Transaction Status is MEDIUM</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Field Legend</t>
+  </si>
+  <si>
+    <t>Other Field Legend</t>
+  </si>
+  <si>
+    <t>Weighted Mean Legend</t>
+  </si>
+  <si>
+    <t>LOW RISK</t>
+  </si>
+  <si>
+    <t>MEDIUM RISK</t>
+  </si>
+  <si>
+    <t>HIGH RISK</t>
+  </si>
+  <si>
+    <t>Risk Status</t>
+  </si>
+  <si>
+    <t>Empty or Y</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
+    <t>Nationality Code</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Identification Type</t>
+  </si>
+  <si>
+    <t>Identication No</t>
+  </si>
+  <si>
+    <t>Residence Address Room</t>
+  </si>
+  <si>
+    <t>Residence Address Floor</t>
+  </si>
+  <si>
+    <t>Residence Address Block</t>
+  </si>
+  <si>
+    <t>Residence Address Building Name</t>
+  </si>
+  <si>
+    <t>Residence Address Street</t>
+  </si>
+  <si>
+    <t>Residence Address District</t>
+  </si>
+  <si>
+    <t>Residence Address City</t>
+  </si>
+  <si>
+    <t>Residence Address Country Code</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Simple Average</t>
   </si>
   <si>
     <t>Item Count</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Residence Address Lot</t>
+  </si>
+  <si>
+    <t>Residence Address Village</t>
+  </si>
+  <si>
+    <t>Residence Address Housing Project</t>
+  </si>
+  <si>
+    <t>Nature of Government Income</t>
+  </si>
+  <si>
+    <t>Nature of Source Income</t>
+  </si>
+  <si>
+    <t>String Y/N</t>
+  </si>
+  <si>
+    <t>String yyyy-MM-dd</t>
+  </si>
+  <si>
+    <t>String 5</t>
+  </si>
+  <si>
+    <t>Client Acct ID</t>
+  </si>
+  <si>
+    <t>Primary Role</t>
   </si>
   <si>
     <t>Individual Tag</t>
   </si>
   <si>
-    <t>String Y/N</t>
+    <t>Company Address Room</t>
+  </si>
+  <si>
+    <t>Company Address Floor</t>
+  </si>
+  <si>
+    <t>Company Address Block</t>
+  </si>
+  <si>
+    <t>Company Address Lot</t>
+  </si>
+  <si>
+    <t>Company Address Building Name</t>
+  </si>
+  <si>
+    <t>Company Address Street</t>
+  </si>
+  <si>
+    <t>Company Address Village</t>
+  </si>
+  <si>
+    <t>Company Address Housing Project</t>
+  </si>
+  <si>
+    <t>Company Address District</t>
+  </si>
+  <si>
+    <t>Company Address City</t>
+  </si>
+  <si>
+    <t>Company Address Country Code</t>
   </si>
   <si>
     <t>Individual Tag N</t>
   </si>
   <si>
-    <t>First Name EN</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>Company Name EN</t>
   </si>
   <si>
-    <t>Middle Name EN</t>
-  </si>
-  <si>
     <t>Company Type</t>
   </si>
   <si>
-    <t>Last Name EN</t>
-  </si>
-  <si>
     <t>Company Tel No</t>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>String yyyy-MM-dd</t>
-  </si>
-  <si>
     <t>Company Primary Contact No</t>
   </si>
   <si>
-    <t>Place of Birth</t>
-  </si>
-  <si>
     <t>Company Date Of Incorporation</t>
   </si>
   <si>
-    <t>Nationality Code</t>
-  </si>
-  <si>
-    <t>String 5</t>
-  </si>
-  <si>
     <t>Company Certification Type</t>
   </si>
   <si>
-    <t>Contact No</t>
-  </si>
-  <si>
     <t>Company Certification No</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Company Registration Type</t>
   </si>
   <si>
-    <t>Identification Type</t>
-  </si>
-  <si>
     <t>Company Registration No</t>
-  </si>
-  <si>
-    <t>Identication No</t>
-  </si>
-  <si>
-    <t>Residence Address Room</t>
-  </si>
-  <si>
-    <t>Company Address Room</t>
-  </si>
-  <si>
-    <t>Residence Address Floor</t>
-  </si>
-  <si>
-    <t>Company Address Floor</t>
-  </si>
-  <si>
-    <t>Residence Address Block</t>
-  </si>
-  <si>
-    <t>Company Address Block</t>
-  </si>
-  <si>
-    <t>Residence Address Lot</t>
-  </si>
-  <si>
-    <t>Company Address Lot</t>
-  </si>
-  <si>
-    <t>Residence Address Building Name</t>
-  </si>
-  <si>
-    <t>Company Address Building Name</t>
-  </si>
-  <si>
-    <t>Residence Address Street</t>
-  </si>
-  <si>
-    <t>Company Address Street</t>
-  </si>
-  <si>
-    <t>Residence Address Village</t>
-  </si>
-  <si>
-    <t>Company Address Village</t>
-  </si>
-  <si>
-    <t>Residence Address Housing Project</t>
-  </si>
-  <si>
-    <t>Company Address Housing Project</t>
-  </si>
-  <si>
-    <t>Residence Address District</t>
-  </si>
-  <si>
-    <t>Company Address District</t>
-  </si>
-  <si>
-    <t>Residence Address City</t>
-  </si>
-  <si>
-    <t>Company Address City</t>
-  </si>
-  <si>
-    <t>Residence Address Country Code</t>
-  </si>
-  <si>
-    <t>Company Address Country Code</t>
-  </si>
-  <si>
-    <t>Country Code Operation</t>
-  </si>
-  <si>
-    <t>Authorized Signers</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Regulatory</t>
-  </si>
-  <si>
-    <t>Government Income</t>
-  </si>
-  <si>
-    <t>Nature of Government Income</t>
-  </si>
-  <si>
-    <t>Source Income</t>
-  </si>
-  <si>
-    <t>Nature of Source Income</t>
-  </si>
-  <si>
-    <t>Primary Role</t>
-  </si>
-  <si>
-    <t>Client ID</t>
-  </si>
-  <si>
-    <t>Client Acct ID</t>
-  </si>
-  <si>
-    <t>Client Type</t>
-  </si>
-  <si>
-    <t>Field Legend</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>remove criteria</t>
-  </si>
-  <si>
-    <t>Input or N</t>
-  </si>
-  <si>
-    <t>Empty or Y</t>
-  </si>
-  <si>
-    <t>Other Field Legend</t>
-  </si>
-  <si>
-    <t>Transaction Status is null</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>Transaction Status is LOW</t>
-  </si>
-  <si>
-    <t>Transaction Status is HIGH</t>
-  </si>
-  <si>
-    <t>Transaction Status is MEDIUM</t>
-  </si>
-  <si>
-    <t>Weighted Mean Legend</t>
-  </si>
-  <si>
-    <t>Risk Status</t>
-  </si>
-  <si>
-    <t>LOW RISK</t>
-  </si>
-  <si>
-    <t>MEDIUM RISK</t>
-  </si>
-  <si>
-    <t>HIGH RISK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,10 +378,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,9 +391,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -443,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,26 +472,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,23 +507,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,35 +682,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4">
         <f>B4/B3</f>
@@ -756,7 +718,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>COUNTA(A5:A50)</f>
         <v>36</v>
@@ -766,12 +728,12 @@
         <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4">
         <f>SUM(B5:B50)</f>
@@ -779,578 +741,578 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9" customHeight="1">
+    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.9" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="6">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="6">
+        <v>67</v>
+      </c>
+      <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="6">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5">
         <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="B40" s="8">
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1370,121 +1332,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3.5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1493,12 +1455,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
